--- a/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/paleovirology/Parvovirus-GLUE-EVE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEB895A-28C9-7043-98AD-2349FA921EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1473851-C3D4-2B43-8417-1E01443E3925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="9680" windowWidth="32880" windowHeight="17240" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,10 +646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DEEDB-7439-774B-BFFC-655641BD9B32}">
-  <dimension ref="A2:W9"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,83 +675,154 @@
     <col min="23" max="23" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>19</v>
+      <c r="C2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="13">
+        <v>30443409</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>24</v>
@@ -785,11 +857,11 @@
       <c r="M3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>27</v>
+      <c r="N3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>27</v>
@@ -798,16 +870,16 @@
         <v>29</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S3" s="13">
         <v>30443409</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>25</v>
@@ -818,10 +890,10 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>24</v>
@@ -830,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>22</v>
@@ -851,34 +923,34 @@
         <v>22</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="S4" s="13">
         <v>30443409</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>25</v>
@@ -889,10 +961,10 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>24</v>
@@ -901,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>22</v>
@@ -928,28 +1000,28 @@
         <v>27</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S5" s="13">
         <v>30443409</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V5" s="8" t="s">
         <v>25</v>
@@ -960,10 +1032,10 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>24</v>
@@ -972,7 +1044,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>22</v>
@@ -998,11 +1070,11 @@
       <c r="M6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>43</v>
+      <c r="N6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>27</v>
@@ -1011,16 +1083,16 @@
         <v>29</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S6" s="13">
         <v>30443409</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>25</v>
@@ -1031,10 +1103,10 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>24</v>
@@ -1082,16 +1154,16 @@
         <v>29</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S7" s="13">
         <v>30443409</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V7" s="8" t="s">
         <v>25</v>
@@ -1102,10 +1174,10 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>24</v>
@@ -1140,11 +1212,11 @@
       <c r="M8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>27</v>
+      <c r="N8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>27</v>
@@ -1153,16 +1225,16 @@
         <v>29</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S8" s="13">
         <v>30443409</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>25</v>
@@ -1171,80 +1243,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="9">
-        <v>105</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" s="13">
-        <v>30443409</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:W9">
-    <sortCondition ref="B3:B9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W8">
+    <sortCondition ref="B2:B8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/paleovirology/Parvovirus-GLUE-EVE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1473851-C3D4-2B43-8417-1E01443E3925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29618C2-C996-8B4D-AF81-04327E1FB362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
   <si>
     <t>sequenceID</t>
   </si>
@@ -95,18 +95,12 @@
     <t>virus_genus</t>
   </si>
   <si>
-    <t>amdo.1-ellobius</t>
-  </si>
-  <si>
     <t>reference</t>
   </si>
   <si>
     <t>Amdoparvovirus</t>
   </si>
   <si>
-    <t>amdo.2-ellobius</t>
-  </si>
-  <si>
     <t>fasta-refseqs-amdo-epv</t>
   </si>
   <si>
@@ -125,18 +119,12 @@
     <t>Species</t>
   </si>
   <si>
-    <t>Ellobius</t>
-  </si>
-  <si>
     <t>assign_clade</t>
   </si>
   <si>
     <t>assign_subclade</t>
   </si>
   <si>
-    <t>ap.102-procavia</t>
-  </si>
-  <si>
     <t>ap.103-orycteropus</t>
   </si>
   <si>
@@ -192,6 +180,21 @@
   </si>
   <si>
     <t>Sarcophilus harrisii</t>
+  </si>
+  <si>
+    <t>amdo.1-EllLut</t>
+  </si>
+  <si>
+    <t>amdo.2-EllLut</t>
+  </si>
+  <si>
+    <t>Ellobius lutescens</t>
+  </si>
+  <si>
+    <t>ap.103-OreAfe</t>
+  </si>
+  <si>
+    <t>ap.104-SarHar</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="A1:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,10 +695,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -740,7 +743,7 @@
         <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>19</v>
@@ -748,499 +751,499 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="R2" s="13" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="S2" s="13">
         <v>30443409</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B3" s="9">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="R3" s="13" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="S3" s="13">
         <v>30443409</v>
       </c>
       <c r="T3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="W3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" s="9">
         <v>101</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="11">
         <v>4</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S4" s="13">
         <v>30443409</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="9">
         <v>102</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="R5" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S5" s="13">
         <v>30443409</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B6" s="9">
         <v>103</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="R6" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S6" s="13">
         <v>30443409</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B7" s="9">
         <v>104</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="R7" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S7" s="13">
         <v>30443409</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9">
         <v>105</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="R8" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S8" s="13">
         <v>30443409</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
